--- a/categorySort/notebooks/data/dictionaryFull.xlsx
+++ b/categorySort/notebooks/data/dictionaryFull.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfad3d3100e0b584/addedIQ/Random/categorySort/notebooks/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh\Desktop\Projects\Random\categorySort\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF5069A-DB36-4015-A7DE-8AC4503DAB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4199160E-DC66-4610-BB91-FF7ADBF67B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8452" yWindow="-120" windowWidth="18225" windowHeight="11423" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
+    <workbookView minimized="1" xWindow="4230" yWindow="420" windowWidth="18225" windowHeight="11422" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -407,7 +407,16 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>Question</t>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Level4</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A20D62-EF3F-4992-9551-50F41A702F6E}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -774,16 +783,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -797,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -811,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -825,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -839,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -853,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -867,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -881,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -895,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -909,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -923,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -937,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -951,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -965,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -979,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -993,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -1007,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1035,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1049,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1063,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -1077,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -1091,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -1105,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1119,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1133,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1147,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1161,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1175,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1189,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1203,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1217,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1231,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1245,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -1259,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1273,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1287,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1301,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1315,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1329,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1343,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1357,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1371,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1385,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1399,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1413,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1427,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1441,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1455,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -1469,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -1483,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -1497,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -1511,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -1525,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -1539,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -1553,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -1567,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -1581,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -1595,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -1609,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -1623,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -1637,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -1665,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1679,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1693,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -1707,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1721,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -1735,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -1749,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -1763,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -1777,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -1791,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -1805,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -1819,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -1827,10 +1836,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -1841,7 +1853,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -1852,7 +1864,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -1863,7 +1875,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -1871,7 +1883,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -1879,15 +1894,15 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -1895,7 +1910,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -1903,10 +1918,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -1917,7 +1929,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -1925,7 +1937,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -1933,10 +1948,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -1947,7 +1959,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -1958,7 +1970,7 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -1966,10 +1978,10 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -1980,7 +1992,7 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -1988,10 +2000,10 @@
         <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -2002,7 +2014,7 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -2010,10 +2022,10 @@
         <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -2024,7 +2036,7 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -2035,18 +2047,18 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -2057,7 +2069,7 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -2068,7 +2080,7 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -2079,10 +2091,7 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -2096,7 +2105,7 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -2110,7 +2119,7 @@
         <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -2118,10 +2127,13 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -2132,7 +2144,7 @@
         <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -2143,7 +2155,7 @@
         <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -2154,7 +2166,7 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -2165,7 +2177,7 @@
         <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -2176,7 +2188,7 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -2184,15 +2196,18 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -2200,7 +2215,12 @@
         <v>77</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/categorySort/notebooks/data/dictionaryFull.xlsx
+++ b/categorySort/notebooks/data/dictionaryFull.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh\Desktop\Projects\Random\categorySort\notebooks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mh\OneDrive\addedIQ\Random\categorySort\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4199160E-DC66-4610-BB91-FF7ADBF67B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84E4184-A1A0-4CB0-A4CE-45EEF1DC23A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4230" yWindow="420" windowWidth="18225" windowHeight="11422" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,9 +377,6 @@
     <t>Girl's Clothing</t>
   </si>
   <si>
-    <t xml:space="preserve">Infant's Clothing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Accessories </t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Level4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant clothing </t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A20D62-EF3F-4992-9551-50F41A702F6E}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,16 +783,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2133,7 +2133,7 @@
         <v>111</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -2141,10 +2141,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
         <v>115</v>
-      </c>
-      <c r="C104" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -2152,10 +2152,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -2163,10 +2163,10 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -2174,10 +2174,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -2185,10 +2185,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -2196,10 +2196,10 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -2207,7 +2207,7 @@
         <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -2215,7 +2215,7 @@
         <v>77</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">

--- a/categorySort/notebooks/data/dictionaryFull.xlsx
+++ b/categorySort/notebooks/data/dictionaryFull.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mh\OneDrive\addedIQ\Random\categorySort\notebooks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh\Desktop\Projects\Random\categorySort\notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84E4184-A1A0-4CB0-A4CE-45EEF1DC23A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37886FAF-81EC-418F-A55E-7D4C8FEC8F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
+    <workbookView xWindow="4012" yWindow="4012" windowWidth="18225" windowHeight="11423" xr2:uid="{66DBB16E-782C-4274-BC33-0836F6209967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -269,24 +269,12 @@
     <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing Expenses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction </t>
-  </si>
-  <si>
     <t>House Upkeep</t>
   </si>
   <si>
     <t>Furniture</t>
   </si>
   <si>
-    <t xml:space="preserve">Physical Assets </t>
-  </si>
-  <si>
     <t>Real Estate</t>
   </si>
   <si>
@@ -296,18 +284,9 @@
     <t>Leisure</t>
   </si>
   <si>
-    <t xml:space="preserve">Financial Assets </t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
-    <t xml:space="preserve">Rental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fares </t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -335,9 +314,6 @@
     <t>Government Assistance</t>
   </si>
   <si>
-    <t xml:space="preserve">Fees </t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -350,12 +326,6 @@
     <t>Drinks</t>
   </si>
   <si>
-    <t>Alcohal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clothing, Fabric, Accessories </t>
-  </si>
-  <si>
     <t>Clothing</t>
   </si>
   <si>
@@ -377,9 +347,6 @@
     <t>Girl's Clothing</t>
   </si>
   <si>
-    <t xml:space="preserve">Accessories </t>
-  </si>
-  <si>
     <t>Jewelry</t>
   </si>
   <si>
@@ -416,7 +383,55 @@
     <t>Level4</t>
   </si>
   <si>
-    <t xml:space="preserve">Infant clothing </t>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Housing Expenses</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Physical Assets</t>
+  </si>
+  <si>
+    <t>Financial Assets</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>Fares</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Clothing, Fabric, Accessories</t>
+  </si>
+  <si>
+    <t>Infant clothing</t>
+  </si>
+  <si>
+    <t>Car Upkeep</t>
+  </si>
+  <si>
+    <t>Other Vehicles</t>
+  </si>
+  <si>
+    <t>Youth Accessories</t>
+  </si>
+  <si>
+    <t>Savings</t>
   </si>
 </sst>
 </file>
@@ -768,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A20D62-EF3F-4992-9551-50F41A702F6E}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,16 +798,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1842,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -1850,10 +1865,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -1861,10 +1879,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -1872,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -1883,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -1894,7 +1915,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -1902,324 +1926,365 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
         <v>85</v>
       </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
         <v>106</v>
-      </c>
-      <c r="B109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
         <v>77</v>
       </c>
     </row>
